--- a/biology/Botanique/Nannoglottis_carpesioides/Nannoglottis_carpesioides.xlsx
+++ b/biology/Botanique/Nannoglottis_carpesioides/Nannoglottis_carpesioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nannoglottis carpesioides est une espèce de plantes à fleurs du genre Nannoglottis appartenant à la famille des Asteraceae que l'on rencontre dans les montagnes du Gansu, du Shaanxi et du Yunnan en Chine occidentale.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Carl Maximowicz dans le Bulletin de l'Académie impériale des sciences de Saint-Pétersbourg (vol. XXVII, 1881, p. 481[2]) d'après des spécimens découverts par Przewalski dans le Gansu en 1872.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Carl Maximowicz dans le Bulletin de l'Académie impériale des sciences de Saint-Pétersbourg (vol. XXVII, 1881, p. 481) d'après des spécimens découverts par Przewalski dans le Gansu en 1872.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nannoglottis carpesioides est une plante herbacée tomenteuse vivace qui possède un rhizome puissant et des tiges dressées glandulaires de 60 cm à 1 mètre de hauteur. Ses pétioles mesurent 10 cm de longueur et ses limbes foliaires sont d'oblongs à lancéolés, mesurant de 10 à 33 cm de longueur sur 6 à 16 cm de largeur donnant une apparence arachnoïde. Sa fleur ressemble à une grosse marguerite jaune.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nannoglottis carpesioides croît sur les pentes montagneuses boisées de l'étage alpin du Gansu, du Shaanxi et du Yunnan entre 2 000 et 3 400 mètres d'altitude.
 </t>
